--- a/testnet實驗表格-.xlsx
+++ b/testnet實驗表格-.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jambo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidfish/Desktop/pkuthss/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2F1D2BB0-72CA-504B-ADD2-93A1CF61A3E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testnet 新" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>交易次數</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -263,20 +264,79 @@
   </si>
   <si>
     <t>40.359sat/B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>95%信賴區間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成交易時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>149.18~425.06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>185.33~388.91</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84~1.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74~1.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>進入區塊所花時間(秒)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99%信賴區間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>進入緩存池時間(秒)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>進入區塊鏈時間(秒)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.34~1.76</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.26~1.84</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>340.24~522.56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>307.86~554.94</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="ss.000"/>
     <numFmt numFmtId="177" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -488,6 +548,18 @@
     <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,18 +571,6 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,64 +851,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="66" customWidth="1"/>
-    <col min="9" max="9" width="36.625" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:61">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="30" t="s">
+    <row r="2" spans="1:61">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -925,7 +985,7 @@
       <c r="BH3" s="11"/>
       <c r="BI3" s="11"/>
     </row>
-    <row r="4" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -948,7 +1008,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" ht="16">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1025,7 +1085,7 @@
       <c r="BH5" s="11"/>
       <c r="BI5" s="11"/>
     </row>
-    <row r="6" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1049,7 +1109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1063,7 +1123,7 @@
         <v>2.7893518518518519E-3</v>
       </c>
       <c r="E7" s="7">
-        <f>E6-60</f>
+        <f t="shared" ref="E7:E13" si="0">E6-60</f>
         <v>378</v>
       </c>
       <c r="F7" s="6">
@@ -1127,7 +1187,7 @@
       <c r="BH7" s="11"/>
       <c r="BI7" s="11"/>
     </row>
-    <row r="8" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1141,7 +1201,7 @@
         <v>3.483796296296296E-3</v>
       </c>
       <c r="E8" s="3">
-        <f>E7-60</f>
+        <f t="shared" si="0"/>
         <v>318</v>
       </c>
       <c r="F8" s="2">
@@ -1151,7 +1211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1165,7 +1225,7 @@
         <v>4.1898148148148146E-3</v>
       </c>
       <c r="E9" s="7">
-        <f>E8-60</f>
+        <f t="shared" si="0"/>
         <v>258</v>
       </c>
       <c r="F9" s="6">
@@ -1229,7 +1289,7 @@
       <c r="BH9" s="11"/>
       <c r="BI9" s="11"/>
     </row>
-    <row r="10" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1243,7 +1303,7 @@
         <v>4.8726851851851856E-3</v>
       </c>
       <c r="E10" s="3">
-        <f>E9-60</f>
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="F10" s="2">
@@ -1253,7 +1313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" ht="16">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1267,7 +1327,7 @@
         <v>5.5671296296296302E-3</v>
       </c>
       <c r="E11" s="7">
-        <f>E10-60</f>
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
       <c r="F11" s="6">
@@ -1331,7 +1391,7 @@
       <c r="BH11" s="11"/>
       <c r="BI11" s="11"/>
     </row>
-    <row r="12" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1345,7 +1405,7 @@
         <v>6.2615740740740748E-3</v>
       </c>
       <c r="E12" s="3">
-        <f>E11-60</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="F12" s="2">
@@ -1355,7 +1415,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" ht="16">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1369,7 +1429,7 @@
         <v>6.9560185185185185E-3</v>
       </c>
       <c r="E13" s="7">
-        <f>E12-60</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="F13" s="6">
@@ -1433,7 +1493,7 @@
       <c r="BH13" s="11"/>
       <c r="BI13" s="11"/>
     </row>
-    <row r="14" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1456,7 +1516,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1470,7 +1530,7 @@
         <v>8.3449074074074085E-3</v>
       </c>
       <c r="E15" s="7">
-        <f>E14-60</f>
+        <f t="shared" ref="E15:E22" si="1">E14-60</f>
         <v>750</v>
       </c>
       <c r="F15" s="6">
@@ -1534,7 +1594,7 @@
       <c r="BH15" s="11"/>
       <c r="BI15" s="11"/>
     </row>
-    <row r="16" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1548,7 +1608,7 @@
         <v>9.0393518518518522E-3</v>
       </c>
       <c r="E16" s="3">
-        <f>E15-60</f>
+        <f t="shared" si="1"/>
         <v>690</v>
       </c>
       <c r="F16" s="2">
@@ -1558,7 +1618,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -1572,7 +1632,7 @@
         <v>9.7337962962962977E-3</v>
       </c>
       <c r="E17" s="7">
-        <f>E16-60</f>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="F17" s="6">
@@ -1636,7 +1696,7 @@
       <c r="BH17" s="11"/>
       <c r="BI17" s="11"/>
     </row>
-    <row r="18" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1650,7 +1710,7 @@
         <v>1.042824074074074E-2</v>
       </c>
       <c r="E18" s="3">
-        <f>E17-60</f>
+        <f t="shared" si="1"/>
         <v>570</v>
       </c>
       <c r="F18" s="2">
@@ -1660,7 +1720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -1674,7 +1734,7 @@
         <v>1.113425925925926E-2</v>
       </c>
       <c r="E19" s="7">
-        <f>E18-60</f>
+        <f t="shared" si="1"/>
         <v>510</v>
       </c>
       <c r="F19" s="6">
@@ -1738,7 +1798,7 @@
       <c r="BH19" s="11"/>
       <c r="BI19" s="11"/>
     </row>
-    <row r="20" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1752,7 +1812,7 @@
         <v>1.1828703703703704E-2</v>
       </c>
       <c r="E20" s="3">
-        <f>E19-60</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="F20" s="2">
@@ -1762,7 +1822,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -1776,7 +1836,7 @@
         <v>1.2511574074074073E-2</v>
       </c>
       <c r="E21" s="7">
-        <f>E20-60</f>
+        <f t="shared" si="1"/>
         <v>390</v>
       </c>
       <c r="F21" s="6">
@@ -1840,7 +1900,7 @@
       <c r="BH21" s="11"/>
       <c r="BI21" s="11"/>
     </row>
-    <row r="22" spans="1:61" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:61" s="4" customFormat="1" ht="16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1854,7 +1914,7 @@
         <v>1.3206018518518518E-2</v>
       </c>
       <c r="E22" s="3">
-        <f>E21-60</f>
+        <f t="shared" si="1"/>
         <v>330</v>
       </c>
       <c r="F22" s="2">
@@ -1862,24 +1922,24 @@
       </c>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:61">
+      <c r="A23" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24">
         <f>SUM(C3:C22)/25</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29">
+      <c r="D23" s="24"/>
+      <c r="E23" s="25">
         <f>SUM(E3:E22)/25</f>
         <v>287.12</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:61">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -1888,7 +1948,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:61">
       <c r="A25" s="14" t="s">
         <v>15</v>
       </c>
@@ -1903,7 +1963,7 @@
         <v>246.59830963692647</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:61">
       <c r="A26" s="14" t="s">
         <v>16</v>
       </c>
@@ -1924,7 +1984,7 @@
         <v>388.91077931191103</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:61">
       <c r="A27" s="14" t="s">
         <v>17</v>
       </c>
@@ -1943,6 +2003,73 @@
       <c r="E27" s="15">
         <f>E23+_xlfn.CONFIDENCE.T(0.01, E25, 25)</f>
         <v>425.0641108068246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C30">
+        <v>287.12</v>
+      </c>
+      <c r="D30">
+        <v>287.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61">
+      <c r="A31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>0.68</v>
+      </c>
+      <c r="C31">
+        <v>246.59</v>
+      </c>
+      <c r="D31">
+        <v>246.59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61">
+      <c r="A32" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1962,63 +2089,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
     <col min="7" max="7" width="64.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="30" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="16">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2041,7 +2168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2065,7 +2192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="16">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -2089,7 +2216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2113,7 +2240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="16">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -2137,7 +2264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2161,7 +2288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="16">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2185,7 +2312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2209,7 +2336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="16">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -2233,7 +2360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2257,7 +2384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="11" customFormat="1" ht="16">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -2281,7 +2408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2305,7 +2432,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="16">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -2319,7 +2446,7 @@
         <v>8.3564814814814804E-3</v>
       </c>
       <c r="E15" s="7">
-        <f>E14-60</f>
+        <f t="shared" ref="E15:E22" si="1">E14-60</f>
         <v>750</v>
       </c>
       <c r="F15" s="6">
@@ -2329,7 +2456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2343,7 +2470,7 @@
         <v>9.0393518518518522E-3</v>
       </c>
       <c r="E16" s="3">
-        <f>E15-60</f>
+        <f t="shared" si="1"/>
         <v>690</v>
       </c>
       <c r="F16" s="2">
@@ -2353,7 +2480,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="11" customFormat="1" ht="16">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -2367,7 +2494,7 @@
         <v>9.7453703703703713E-3</v>
       </c>
       <c r="E17" s="7">
-        <f>E16-60</f>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="F17" s="6">
@@ -2377,7 +2504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2391,7 +2518,7 @@
         <v>1.042824074074074E-2</v>
       </c>
       <c r="E18" s="3">
-        <f>E17-60</f>
+        <f t="shared" si="1"/>
         <v>570</v>
       </c>
       <c r="F18" s="2">
@@ -2401,7 +2528,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="11" customFormat="1" ht="16">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -2415,7 +2542,7 @@
         <v>1.113425925925926E-2</v>
       </c>
       <c r="E19" s="7">
-        <f>E18-60</f>
+        <f t="shared" si="1"/>
         <v>510</v>
       </c>
       <c r="F19" s="6">
@@ -2425,7 +2552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2439,7 +2566,7 @@
         <v>1.1828703703703704E-2</v>
       </c>
       <c r="E20" s="3">
-        <f>E19-60</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="F20" s="2">
@@ -2449,7 +2576,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="11" customFormat="1" ht="16">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2463,7 +2590,7 @@
         <v>1.2511574074074073E-2</v>
       </c>
       <c r="E21" s="7">
-        <f>E20-60</f>
+        <f t="shared" si="1"/>
         <v>390</v>
       </c>
       <c r="F21" s="6">
@@ -2473,7 +2600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="4" customFormat="1" ht="16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2487,7 +2614,7 @@
         <v>1.3217592592592593E-2</v>
       </c>
       <c r="E22" s="3">
-        <f>E21-60</f>
+        <f t="shared" si="1"/>
         <v>330</v>
       </c>
       <c r="F22" s="2">
@@ -2497,7 +2624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
@@ -2506,7 +2633,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="12" t="s">
         <v>14</v>
       </c>
@@ -2523,7 +2650,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="14" t="s">
         <v>15</v>
       </c>
@@ -2540,7 +2667,7 @@
         <v>220.84893622469394</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="14" t="s">
         <v>16</v>
       </c>
@@ -2561,7 +2688,7 @@
         <v>522.56196036224503</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="14" t="s">
         <v>17</v>
       </c>
@@ -2580,6 +2707,73 @@
       <c r="E27" s="15">
         <f>E24+_xlfn.CONFIDENCE.T(0.01, E25, 25)</f>
         <v>554.94022286285212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>1.55</v>
+      </c>
+      <c r="C30">
+        <v>431.4</v>
+      </c>
+      <c r="D30">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>0.51</v>
+      </c>
+      <c r="C31">
+        <v>220.84</v>
+      </c>
+      <c r="D31">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/testnet實驗表格-.xlsx
+++ b/testnet實驗表格-.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidfish/Desktop/pkuthss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2F1D2BB0-72CA-504B-ADD2-93A1CF61A3E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A3703176-4DED-C44B-B4E9-0CFE1235F682}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>交易次數</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -323,6 +323,18 @@
   </si>
   <si>
     <t>307.86~554.94</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>實時系统交易平均時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始系统交易平均時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成交易時間(秒)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -855,7 +867,7 @@
   <dimension ref="A1:BI33"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E27"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2090,15 +2102,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:D33"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="34.1640625" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" customWidth="1"/>
@@ -2722,7 +2734,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>1.55</v>
@@ -2774,6 +2786,37 @@
       </c>
       <c r="D33" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="D37">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39">
+        <v>287.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>
